--- a/project/age_10.xlsx
+++ b/project/age_10.xlsx
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3426.287121212121</v>
+        <v>75379</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3582.388055555556</v>
+        <v>57319</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1351.299407407407</v>
+        <v>20270</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1680.708562091503</v>
+        <v>28573</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3851.169583333333</v>
+        <v>61620</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2010.735486111111</v>
+        <v>32173</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3216.597901234568</v>
+        <v>57900</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3311.863127572016</v>
+        <v>89421</v>
       </c>
     </row>
     <row r="10">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3701.269611111111</v>
+        <v>74027</v>
       </c>
     </row>
     <row r="11">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2737.176862745098</v>
+        <v>46533</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3080.068333333334</v>
+        <v>55442</v>
       </c>
     </row>
     <row r="13">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3988.610873015872</v>
+        <v>55842</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3340.902283950617</v>
+        <v>60138</v>
       </c>
     </row>
     <row r="15">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4661.57111111111</v>
+        <v>69925</v>
       </c>
     </row>
     <row r="16">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3857.594305555556</v>
+        <v>61722</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3250.545555555556</v>
+        <v>42258</v>
       </c>
     </row>
     <row r="18">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3977.461277777777</v>
+        <v>79550</v>
       </c>
     </row>
     <row r="19">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4823.366666666666</v>
+        <v>101291</v>
       </c>
     </row>
     <row r="20">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4413.718962962965</v>
+        <v>66206</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3356.87438271605</v>
+        <v>60425</v>
       </c>
     </row>
     <row r="22">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3586.863</v>
+        <v>35870</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4113.899707602339</v>
+        <v>78166</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3314.729365079365</v>
+        <v>46407</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4596.580317460317</v>
+        <v>64353</v>
       </c>
     </row>
     <row r="26">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3919.326814814814</v>
+        <v>58791</v>
       </c>
     </row>
     <row r="27">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4002.32512345679</v>
+        <v>72043</v>
       </c>
     </row>
     <row r="28">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3017.797973856209</v>
+        <v>51304</v>
       </c>
     </row>
     <row r="29">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3474.126666666667</v>
+        <v>69483</v>
       </c>
     </row>
     <row r="30">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4178.746131687242</v>
+        <v>112827</v>
       </c>
     </row>
     <row r="31">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3699.106296296296</v>
+        <v>66585</v>
       </c>
     </row>
     <row r="32">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4841.418611111111</v>
+        <v>77463</v>
       </c>
     </row>
     <row r="33">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2498.354027777778</v>
+        <v>39975</v>
       </c>
     </row>
     <row r="34">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1367.256666666667</v>
+        <v>23245</v>
       </c>
     </row>
     <row r="35">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1517.537111111111</v>
+        <v>22764</v>
       </c>
     </row>
     <row r="36">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4055.891944444444</v>
+        <v>64895</v>
       </c>
     </row>
     <row r="37">
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4064.690308641975</v>
+        <v>73165</v>
       </c>
     </row>
     <row r="38">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3288.966507936508</v>
+        <v>46047</v>
       </c>
     </row>
     <row r="39">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4262.014148148148</v>
+        <v>63931</v>
       </c>
     </row>
     <row r="40">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4837.10888888889</v>
+        <v>72558</v>
       </c>
     </row>
     <row r="41">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4481.129930555557</v>
+        <v>71699</v>
       </c>
     </row>
     <row r="42">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4039.33524691358</v>
+        <v>72709</v>
       </c>
     </row>
     <row r="43">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3716.589829059829</v>
+        <v>48317</v>
       </c>
     </row>
     <row r="44">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5205.218111111111</v>
+        <v>104105</v>
       </c>
     </row>
     <row r="45">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4749.460687830688</v>
+        <v>99739</v>
       </c>
     </row>
     <row r="46">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4327.859595959595</v>
+        <v>95214</v>
       </c>
     </row>
     <row r="47">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5312.15237037037</v>
+        <v>79684</v>
       </c>
     </row>
     <row r="48">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4017.789444444444</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="49">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4227.487719298246</v>
+        <v>80323</v>
       </c>
     </row>
     <row r="50">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3477.425634920635</v>
+        <v>48685</v>
       </c>
     </row>
     <row r="51">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4079.422222222222</v>
+        <v>57112</v>
       </c>
     </row>
     <row r="52">
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4229.908456790125</v>
+        <v>76140</v>
       </c>
     </row>
     <row r="53">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2886.906928104575</v>
+        <v>49078</v>
       </c>
     </row>
     <row r="54">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3805.286611111111</v>
+        <v>76107</v>
       </c>
     </row>
     <row r="55">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4266.080658436214</v>
+        <v>115186</v>
       </c>
     </row>
     <row r="56">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4865.302345679012</v>
+        <v>87576</v>
       </c>
     </row>
     <row r="57">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2428.714583333333</v>
+        <v>38860</v>
       </c>
     </row>
     <row r="58">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3582.861349206349</v>
+        <v>50161</v>
       </c>
     </row>
     <row r="59">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5080.458749999999</v>
+        <v>81288</v>
       </c>
     </row>
     <row r="60">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1552.216862745098</v>
+        <v>26389</v>
       </c>
     </row>
     <row r="61">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1461.606222222222</v>
+        <v>21925</v>
       </c>
     </row>
     <row r="62">
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3774.591172839506</v>
+        <v>67944</v>
       </c>
     </row>
     <row r="63">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4011.53138888889</v>
+        <v>64186</v>
       </c>
     </row>
     <row r="64">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4107.938958333334</v>
+        <v>65728</v>
       </c>
     </row>
     <row r="65">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3987.411587301588</v>
+        <v>55825</v>
       </c>
     </row>
     <row r="66">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4455.033232323232</v>
+        <v>98012</v>
       </c>
     </row>
     <row r="67">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4132.52462962963</v>
+        <v>74387</v>
       </c>
     </row>
     <row r="68">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4078.169145299145</v>
+        <v>53017</v>
       </c>
     </row>
     <row r="69">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4598.495999999999</v>
+        <v>91971</v>
       </c>
     </row>
     <row r="70">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3692.836560846561</v>
+        <v>77551</v>
       </c>
     </row>
     <row r="71">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4174.143259259259</v>
+        <v>62613</v>
       </c>
     </row>
     <row r="72">
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4899.60274074074</v>
+        <v>73495</v>
       </c>
     </row>
     <row r="73">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4280.907999999999</v>
+        <v>42810</v>
       </c>
     </row>
     <row r="74">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5352.467953216374</v>
+        <v>101698</v>
       </c>
     </row>
     <row r="75">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4043.917222222222</v>
+        <v>56615</v>
       </c>
     </row>
     <row r="76">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4013.526666666667</v>
+        <v>60204</v>
       </c>
     </row>
     <row r="77">
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2790.103725490196</v>
+        <v>47433</v>
       </c>
     </row>
     <row r="78">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3429.812777777777</v>
+        <v>68597</v>
       </c>
     </row>
     <row r="79">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3959.282757201646</v>
+        <v>106901</v>
       </c>
     </row>
     <row r="80">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4362.277962962963</v>
+        <v>78522</v>
       </c>
     </row>
     <row r="81">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3966.862037037037</v>
+        <v>71405</v>
       </c>
     </row>
     <row r="82">
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4757.153402777777</v>
+        <v>76115</v>
       </c>
     </row>
     <row r="83">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1543.303529411765</v>
+        <v>26237</v>
       </c>
     </row>
     <row r="84">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1477.900740740741</v>
+        <v>22170</v>
       </c>
     </row>
     <row r="85">
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4456.212708333334</v>
+        <v>71300</v>
       </c>
     </row>
     <row r="86">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3403.839074074074</v>
+        <v>61271</v>
       </c>
     </row>
     <row r="87">
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2218.457013888889</v>
+        <v>35496</v>
       </c>
     </row>
     <row r="88">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3373.838253968254</v>
+        <v>47235</v>
       </c>
     </row>
     <row r="89">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3361.900069444445</v>
+        <v>53792</v>
       </c>
     </row>
     <row r="90">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4118.237629629629</v>
+        <v>61775</v>
       </c>
     </row>
     <row r="91">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4314.43888888889</v>
+        <v>77661</v>
       </c>
     </row>
     <row r="92">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4100.554786324785</v>
+        <v>53308</v>
       </c>
     </row>
     <row r="93">
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4609.724</v>
+        <v>92196</v>
       </c>
     </row>
     <row r="94">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3606.736137566137</v>
+        <v>75743</v>
       </c>
     </row>
     <row r="95">
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3907.732148148148</v>
+        <v>58617</v>
       </c>
     </row>
     <row r="96">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3728.561717171717</v>
+        <v>82029</v>
       </c>
     </row>
     <row r="97">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4709.085000000001</v>
+        <v>47092</v>
       </c>
     </row>
     <row r="98">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4757.103976608187</v>
+        <v>90386</v>
       </c>
     </row>
     <row r="99">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4249.397777777777</v>
+        <v>59492</v>
       </c>
     </row>
     <row r="100">
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4021.251587301587</v>
+        <v>56298</v>
       </c>
     </row>
     <row r="101">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5034.761037037037</v>
+        <v>75523</v>
       </c>
     </row>
     <row r="102">
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1745.243464052288</v>
+        <v>29670</v>
       </c>
     </row>
     <row r="103">
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2329.044055555556</v>
+        <v>46582</v>
       </c>
     </row>
     <row r="104">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2530.452510288066</v>
+        <v>68324</v>
       </c>
     </row>
     <row r="105">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2833.161666666667</v>
+        <v>45332</v>
       </c>
     </row>
     <row r="106">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2511.752592592593</v>
+        <v>45213</v>
       </c>
     </row>
     <row r="107">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1455.875694444444</v>
+        <v>23295</v>
       </c>
     </row>
     <row r="108">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3261.392777777778</v>
+        <v>52183</v>
       </c>
     </row>
     <row r="109">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>985.0353594771241</v>
+        <v>16746</v>
       </c>
     </row>
     <row r="110">
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>992.4536296296296</v>
+        <v>14888</v>
       </c>
     </row>
     <row r="111">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2307.442654320988</v>
+        <v>41535</v>
       </c>
     </row>
     <row r="112">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2514.521728395062</v>
+        <v>45262</v>
       </c>
     </row>
     <row r="113">
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2269.304603174603</v>
+        <v>31771</v>
       </c>
     </row>
     <row r="114">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3393.719185185185</v>
+        <v>50907</v>
       </c>
     </row>
     <row r="115">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2845.998518518519</v>
+        <v>42691</v>
       </c>
     </row>
     <row r="116">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2828.970476190477</v>
+        <v>39607</v>
       </c>
     </row>
     <row r="117">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2717.074523809524</v>
+        <v>38040</v>
       </c>
     </row>
     <row r="118">
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2811.902339181287</v>
+        <v>53428</v>
       </c>
     </row>
     <row r="119">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2878.384444444444</v>
+        <v>28785</v>
       </c>
     </row>
     <row r="120">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2322.628444444445</v>
+        <v>34841</v>
       </c>
     </row>
     <row r="121">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2608.865343915343</v>
+        <v>54788</v>
       </c>
     </row>
     <row r="122">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3007.5545</v>
+        <v>60152</v>
       </c>
     </row>
     <row r="123">
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2993.807008547008</v>
+        <v>38921</v>
       </c>
     </row>
     <row r="124">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2766.816049382716</v>
+        <v>49804</v>
       </c>
     </row>
     <row r="125">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2408.313737373737</v>
+        <v>52984</v>
       </c>
     </row>
     <row r="126">
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2154.793472222223</v>
+        <v>34478</v>
       </c>
     </row>
     <row r="127">
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1574.909135802469</v>
+        <v>28349</v>
       </c>
     </row>
     <row r="128">
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1392.961699346405</v>
+        <v>23682</v>
       </c>
     </row>
     <row r="129">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1968.636666666667</v>
+        <v>39373</v>
       </c>
     </row>
     <row r="130">
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1531.330617283951</v>
+        <v>41346</v>
       </c>
     </row>
     <row r="131">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>898.2729411764706</v>
+        <v>15272</v>
       </c>
     </row>
     <row r="132">
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1742.338333333334</v>
+        <v>31363</v>
       </c>
     </row>
     <row r="133">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1343.326805555556</v>
+        <v>21494</v>
       </c>
     </row>
     <row r="134">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2695.673263888889</v>
+        <v>43132</v>
       </c>
     </row>
     <row r="135">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2126.643015873016</v>
+        <v>29774</v>
       </c>
     </row>
     <row r="136">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1685.887222222222</v>
+        <v>30347</v>
       </c>
     </row>
     <row r="137">
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1921.665763888889</v>
+        <v>30747</v>
       </c>
     </row>
     <row r="138">
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2155.697333333334</v>
+        <v>32337</v>
       </c>
     </row>
     <row r="139">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2319.581349206349</v>
+        <v>32475</v>
       </c>
     </row>
     <row r="140">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2205.539523809523</v>
+        <v>30879</v>
       </c>
     </row>
     <row r="141">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2306.613274853802</v>
+        <v>43827</v>
       </c>
     </row>
     <row r="142">
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1885.945111111111</v>
+        <v>18860</v>
       </c>
     </row>
     <row r="143">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1634.869851851852</v>
+        <v>24524</v>
       </c>
     </row>
     <row r="144">
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1851.183068783069</v>
+        <v>38876</v>
       </c>
     </row>
     <row r="145">
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2027.764777777778</v>
+        <v>40557</v>
       </c>
     </row>
     <row r="146">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2512.01923076923</v>
+        <v>32658</v>
       </c>
     </row>
     <row r="147">
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1692.535987654321</v>
+        <v>30467</v>
       </c>
     </row>
     <row r="148">
@@ -2799,7 +2799,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1593.510858585859</v>
+        <v>35058</v>
       </c>
     </row>
     <row r="149">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>799.5812592592592</v>
+        <v>11995</v>
       </c>
     </row>
     <row r="150">
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2182.606</v>
+        <v>32740</v>
       </c>
     </row>
     <row r="151">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2051.022361111111</v>
+        <v>32817</v>
       </c>
     </row>
   </sheetData>
